--- a/Section03/3.1-Excel_Functions_Instructor.xlsx
+++ b/Section03/3.1-Excel_Functions_Instructor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\JUnger.NP\Repos\dap-curriculum\Section03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF597AD-97CA-4AB9-A5D3-49B3CBBD358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B91923-F322-4AC1-B4DB-EFDD2ED343F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23604" yWindow="1896" windowWidth="23076" windowHeight="13008" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" activeTab="3" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="5" r:id="rId1"/>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -537,84 +534,87 @@
     <t>Sum If type == to …</t>
   </si>
   <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(G5,A3:E24,2,1)'</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Search </t>
+      <t>Search  for '</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>lookup_value</t>
+      <t xml:space="preserve">lookup_value' </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (ID# 8), in </t>
+      <t>(G5=8), 
+in '</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>table_array</t>
+      <t>table_array'</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (lookup range),  with </t>
+      <t xml:space="preserve"> (lookup range A3:E24), 
+-- Thus find #8 in the range somewhere --,
+along with '</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>col_index_num</t>
+      <t>col_index_num'</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of lookup_value, for an </t>
+      <t xml:space="preserve"> (column 2) of that matched  'lookup_value', 
+for an </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -622,15 +622,12 @@
       <t>approximate match</t>
     </r>
   </si>
-  <si>
-    <t>SUM</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,9 +676,15 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -870,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -959,7 +962,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,20 +998,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829368FF-8C7F-4F90-85EA-D9B783812BEC}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -1326,7 +1335,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1409,7 +1418,7 @@
       <c r="D6" s="23">
         <v>309</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1715,11 +1724,11 @@
       <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1920,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E42,$D$42:$D$54,F42)</f>
+        <f t="shared" ref="G42:G53" si="0">SUMIFS($C$42:$C$54,$B$42:$B$54,E42,$D$42:$D$54,F42)</f>
         <v>314</v>
       </c>
     </row>
@@ -1944,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E43,$D$42:$D$54,F43)</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
     </row>
@@ -1968,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E44,$D$42:$D$54,F44)</f>
+        <f t="shared" si="0"/>
         <v>530</v>
       </c>
     </row>
@@ -1992,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E45,$D$42:$D$54,F45)</f>
+        <f t="shared" si="0"/>
         <v>318</v>
       </c>
     </row>
@@ -2016,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E46,$D$42:$D$54,F46)</f>
+        <f t="shared" si="0"/>
         <v>405</v>
       </c>
     </row>
@@ -2040,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E47,$D$42:$D$54,F47)</f>
+        <f t="shared" si="0"/>
         <v>525</v>
       </c>
     </row>
@@ -2064,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E48,$D$42:$D$54,F48)</f>
+        <f t="shared" si="0"/>
         <v>714</v>
       </c>
     </row>
@@ -2088,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E49,$D$42:$D$54,F49)</f>
+        <f t="shared" si="0"/>
         <v>534</v>
       </c>
     </row>
@@ -2112,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E50,$D$42:$D$54,F50)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2136,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E51,$D$42:$D$54,F51)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
     </row>
@@ -2160,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E52,$D$42:$D$54,F52)</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
@@ -2184,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="18">
-        <f>SUMIFS($C$42:$C$54,$B$42:$B$54,E53,$D$42:$D$54,F53)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
     </row>
@@ -2532,27 +2541,27 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="42"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="42"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="F14" s="30" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -3188,7 +3197,7 @@
         <v>45</v>
       </c>
       <c r="I42" s="16" t="b">
-        <f>_xlfn.XOR(G42="fire",H42&lt;60)</f>
+        <f t="shared" ref="I42:I50" si="6">_xlfn.XOR(G42="fire",H42&lt;60)</f>
         <v>1</v>
       </c>
     </row>
@@ -3216,7 +3225,7 @@
         <v>60</v>
       </c>
       <c r="I43" s="16" t="b">
-        <f>_xlfn.XOR(G43="fire",H43&lt;60)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3244,7 +3253,7 @@
         <v>80</v>
       </c>
       <c r="I44" s="16" t="b">
-        <f>_xlfn.XOR(G44="fire",H44&lt;60)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3272,7 +3281,7 @@
         <v>39</v>
       </c>
       <c r="I45" s="16" t="b">
-        <f>_xlfn.XOR(G45="fire",H45&lt;60)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3300,7 +3309,7 @@
         <v>58</v>
       </c>
       <c r="I46" s="16" t="b">
-        <f>_xlfn.XOR(G46="fire",H46&lt;60)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3328,7 +3337,7 @@
         <v>78</v>
       </c>
       <c r="I47" s="16" t="b">
-        <f>_xlfn.XOR(G47="fire",H47&lt;60)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3356,7 +3365,7 @@
         <v>44</v>
       </c>
       <c r="I48" s="16" t="b">
-        <f>_xlfn.XOR(G48="fire",H48&lt;60)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3384,7 +3393,7 @@
         <v>59</v>
       </c>
       <c r="I49" s="16" t="b">
-        <f>_xlfn.XOR(G49="fire",H49&lt;60)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3412,7 +3421,7 @@
         <v>79</v>
       </c>
       <c r="I50" s="16" t="b">
-        <f>_xlfn.XOR(G50="fire",H50&lt;60)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3435,7 +3444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801AE8FF-C2F6-4AC5-BA0C-31B0E9A4BDC0}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
@@ -3470,10 +3479,10 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -3485,8 +3494,8 @@
       <c r="C3" s="3">
         <v>45</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -3668,7 +3677,7 @@
       <c r="H16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="39" t="s">
         <v>154</v>
       </c>
       <c r="J16" s="1"/>
@@ -3697,7 +3706,7 @@
         <f>AVERAGEIFS($C$16:$C$27, $B$16:$B$27, F17, $D$16:$D$27,G17)</f>
         <v>65</v>
       </c>
-      <c r="I17" s="36"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -3724,7 +3733,7 @@
         <f>AVERAGEIFS($C$16:$C$27, $B$16:$B$27, F18, $D$16:$D$27,G18)</f>
         <v>59.666666666666664</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -3751,7 +3760,7 @@
         <f>AVERAGEIFS($C$16:$C$27, $B$16:$B$27, F19, $D$16:$D$27,G19)</f>
         <v>81.666666666666671</v>
       </c>
-      <c r="I19" s="36"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -3778,7 +3787,7 @@
         <f>AVERAGEIFS($C$16:$C$27, $B$16:$B$27, F20, $D$16:$D$27,G20)</f>
         <v>59.666666666666664</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -4505,17 +4514,17 @@
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="30" t="s">
+      <c r="F55" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="38" t="s">
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -4544,9 +4553,9 @@
       <c r="I56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -4571,9 +4580,9 @@
       <c r="I57" s="2">
         <v>305</v>
       </c>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -4669,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="15">
-        <f>COUNTIF($G$57:$G$76, K60)</f>
+        <f t="shared" ref="L60:L70" si="0">COUNTIF($G$57:$G$76, K60)</f>
         <v>1</v>
       </c>
       <c r="M60" s="1"/>
@@ -4705,7 +4714,7 @@
         <v>14</v>
       </c>
       <c r="L61" s="15">
-        <f>COUNTIF($G$57:$G$76, K61)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M61" s="1"/>
@@ -4741,7 +4750,7 @@
         <v>50</v>
       </c>
       <c r="L62" s="15">
-        <f>COUNTIF($G$57:$G$76, K62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M62" s="1"/>
@@ -4777,7 +4786,7 @@
         <v>44</v>
       </c>
       <c r="L63" s="15">
-        <f>COUNTIF($G$57:$G$76, K63)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M63" s="1"/>
@@ -4813,7 +4822,7 @@
         <v>56</v>
       </c>
       <c r="L64" s="15">
-        <f>COUNTIF($G$57:$G$76, K64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M64" s="1"/>
@@ -4845,7 +4854,7 @@
         <v>59</v>
       </c>
       <c r="L65" s="15">
-        <f>COUNTIF($G$57:$G$76, K65)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M65" s="1"/>
@@ -4881,7 +4890,7 @@
         <v>61</v>
       </c>
       <c r="L66" s="15">
-        <f>COUNTIF($G$57:$G$76, K66)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M66" s="1"/>
@@ -4913,7 +4922,7 @@
         <v>65</v>
       </c>
       <c r="L67" s="15">
-        <f>COUNTIF($G$57:$G$76, K67)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M67" s="1"/>
@@ -4949,7 +4958,7 @@
         <v>47</v>
       </c>
       <c r="L68" s="15">
-        <f>COUNTIF($G$57:$G$76, K68)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M68" s="1"/>
@@ -4985,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="L69" s="15">
-        <f>COUNTIF($G$57:$G$76, K69)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M69" s="1"/>
@@ -5017,7 +5026,7 @@
         <v>72</v>
       </c>
       <c r="L70" s="15">
-        <f>COUNTIF($G$57:$G$76, K70)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M70" s="1"/>
@@ -5224,7 +5233,7 @@
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
     </row>
-    <row r="80" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>4</v>
       </c>
@@ -5237,14 +5246,14 @@
       <c r="D80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-    </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>24</v>
       </c>
@@ -5257,10 +5266,10 @@
       <c r="D81" s="2">
         <v>1</v>
       </c>
-      <c r="E81" s="40"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
@@ -6491,6 +6500,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:I30"/>
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="A114:F114"/>
     <mergeCell ref="A140:G140"/>
@@ -6500,12 +6515,6 @@
     <mergeCell ref="A79:H79"/>
     <mergeCell ref="E80:H81"/>
     <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6513,10 +6522,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAADC6F-B089-4A67-8AAB-ADE778DE49BC}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6526,7 +6535,7 @@
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>144</v>
       </c>
@@ -6537,7 +6546,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
@@ -6556,7 +6565,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6575,7 +6584,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -6594,7 +6603,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -6617,7 +6626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v xml:space="preserve">  Wartortle</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -6656,7 +6665,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -6672,12 +6681,15 @@
       <c r="E8" s="12">
         <v>534</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -6691,10 +6703,10 @@
       <c r="E9" s="12">
         <v>314</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="43"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -6708,10 +6720,10 @@
       <c r="E10" s="12">
         <v>405</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="43"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -6725,10 +6737,10 @@
       <c r="E11" s="12">
         <v>530</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F11" s="43"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -6742,10 +6754,10 @@
       <c r="E12" s="12">
         <v>195</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="43"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -6759,10 +6771,10 @@
       <c r="E13" s="12">
         <v>205</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F13" s="43"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -6778,10 +6790,10 @@
       <c r="E14" s="12">
         <v>395</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F14" s="43"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -6797,10 +6809,10 @@
       <c r="E15" s="12">
         <v>195</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="43"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -6816,8 +6828,8 @@
       <c r="E16" s="12">
         <v>205</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -6835,8 +6847,8 @@
       <c r="E17" s="12">
         <v>395</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -6854,8 +6866,8 @@
       <c r="E18" s="12">
         <v>251</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -6873,8 +6885,8 @@
       <c r="E19" s="12">
         <v>349</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -6969,9 +6981,10 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F8:G14"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F8:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>